--- a/public/CALENDARIO.xlsx
+++ b/public/CALENDARIO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\massi\Desktop\fantalega\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\massi\Desktop\flr webapp\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34646FC8-885A-4204-B5C7-8EFE4906EF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E79E48-24AF-4C6B-B992-5F98D5923AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{27F5C99C-94B9-41A0-B286-789DAA14B1B0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="40">
   <si>
     <t>GIORNATA 1</t>
   </si>
@@ -48,90 +48,42 @@
     <t>ATLETICO VAR</t>
   </si>
   <si>
-    <t>2 - 2</t>
-  </si>
-  <si>
     <t>F.C. SOFIA</t>
   </si>
   <si>
     <t>IL SIGNOR G</t>
   </si>
   <si>
-    <t>3 - 2</t>
-  </si>
-  <si>
     <t>XAMATT F.F.C.</t>
   </si>
   <si>
     <t>SCOGLIO F.F.C.</t>
   </si>
   <si>
-    <t>1 - 0</t>
-  </si>
-  <si>
     <t>STOKE AZZO</t>
   </si>
   <si>
     <t>DREAM TEAM</t>
   </si>
   <si>
-    <t>2 - 0</t>
-  </si>
-  <si>
     <t>GIORNATA 2</t>
   </si>
   <si>
-    <t>5 - 2</t>
-  </si>
-  <si>
-    <t>3 - 1</t>
-  </si>
-  <si>
-    <t>7 - 1</t>
-  </si>
-  <si>
-    <t>1 - 3</t>
-  </si>
-  <si>
     <t>GIORNATA 3</t>
   </si>
   <si>
-    <t>1 - 4</t>
-  </si>
-  <si>
-    <t>0 - 1</t>
-  </si>
-  <si>
-    <t>1 - 2</t>
-  </si>
-  <si>
     <t>GIORNATA 4</t>
   </si>
   <si>
     <t>GIORNATA 5</t>
   </si>
   <si>
-    <t>4 - 4</t>
-  </si>
-  <si>
     <t>GIORNATA 6</t>
   </si>
   <si>
-    <t>1 - 1</t>
-  </si>
-  <si>
     <t>GIORNATA 7</t>
   </si>
   <si>
-    <t>6 - 1</t>
-  </si>
-  <si>
-    <t>5 - 0</t>
-  </si>
-  <si>
-    <t>2 -1</t>
-  </si>
-  <si>
     <t>GIORNATA 8</t>
   </si>
   <si>
@@ -202,9 +154,6 @@
   </si>
   <si>
     <t>COPPA 3</t>
-  </si>
-  <si>
-    <t>0 - 3</t>
   </si>
 </sst>
 </file>
@@ -279,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -302,8 +251,14 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -621,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DE17F2-9030-4752-A48F-22417D61AB9F}">
   <dimension ref="A1:D185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -630,7 +585,7 @@
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="2" max="2" width="1.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="5.5546875" customWidth="1"/>
+    <col min="4" max="4" width="5.5546875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -639,7 +594,7 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -652,49 +607,49 @@
         <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -705,15 +660,15 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>2</v>
@@ -722,21 +677,21 @@
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -747,36 +702,36 @@
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D12" s="8"/>
+      <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
@@ -786,10 +741,10 @@
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -800,54 +755,54 @@
         <v>2</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D18" s="8"/>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>2</v>
@@ -856,12 +811,12 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>2</v>
@@ -870,35 +825,35 @@
         <v>3</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -909,11 +864,11 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
@@ -923,29 +878,29 @@
         <v>2</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>2</v>
@@ -954,37 +909,37 @@
         <v>3</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D30" s="8"/>
+      <c r="D30" s="9"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>2</v>
@@ -993,35 +948,35 @@
         <v>1</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1032,22 +987,22 @@
         <v>2</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D36" s="8"/>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
@@ -1057,38 +1012,38 @@
         <v>2</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1099,19 +1054,22 @@
         <v>2</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>10</v>
-      </c>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D42" s="7"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
@@ -1124,68 +1082,68 @@
         <v>3</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
-      <c r="D48" s="7"/>
+      <c r="D48" s="9"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
+      <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>2</v>
@@ -1194,21 +1152,21 @@
         <v>1</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1219,36 +1177,36 @@
         <v>2</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D54" s="8"/>
+      <c r="D54" s="9"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="D55" s="8"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
@@ -1258,10 +1216,10 @@
         <v>2</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1272,54 +1230,54 @@
         <v>2</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D60" s="8"/>
+      <c r="D60" s="7"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
+      <c r="D61" s="8"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>2</v>
@@ -1328,12 +1286,12 @@
         <v>1</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>2</v>
@@ -1342,50 +1300,50 @@
         <v>3</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
-      <c r="D66" s="7"/>
+      <c r="D66" s="9"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
+      <c r="D67" s="8"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
@@ -1395,29 +1353,29 @@
         <v>2</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>2</v>
@@ -1426,37 +1384,37 @@
         <v>3</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D72" s="8"/>
+      <c r="D72" s="9"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
+      <c r="D73" s="8"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>2</v>
@@ -1465,35 +1423,35 @@
         <v>1</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -1504,22 +1462,22 @@
         <v>2</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D78" s="8"/>
+      <c r="D78" s="7"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
+      <c r="D79" s="8"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
@@ -1529,38 +1487,38 @@
         <v>2</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -1571,19 +1529,22 @@
         <v>2</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>10</v>
-      </c>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D84" s="9"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
+      <c r="D85" s="8"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
@@ -1596,68 +1557,68 @@
         <v>3</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
-      <c r="D90" s="7"/>
+      <c r="D90" s="9"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
+      <c r="D91" s="8"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>2</v>
@@ -1666,21 +1627,21 @@
         <v>1</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -1691,36 +1652,36 @@
         <v>2</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D96" s="8"/>
+      <c r="D96" s="7"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
+      <c r="D97" s="8"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
@@ -1730,10 +1691,10 @@
         <v>2</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -1744,54 +1705,54 @@
         <v>2</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D102" s="8"/>
+      <c r="D102" s="9"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
+      <c r="D103" s="8"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>2</v>
@@ -1800,12 +1761,12 @@
         <v>1</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>2</v>
@@ -1814,50 +1775,50 @@
         <v>3</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
-      <c r="D108" s="7"/>
+      <c r="D108" s="9"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
+      <c r="D109" s="8"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
@@ -1867,29 +1828,29 @@
         <v>2</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>2</v>
@@ -1898,37 +1859,37 @@
         <v>3</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D114" s="8"/>
+      <c r="D114" s="7"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
+      <c r="D115" s="8"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>2</v>
@@ -1937,35 +1898,35 @@
         <v>1</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -1976,22 +1937,22 @@
         <v>2</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D120" s="8"/>
+      <c r="D120" s="9"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
+      <c r="D121" s="8"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
@@ -2001,38 +1962,38 @@
         <v>2</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -2043,19 +2004,22 @@
         <v>2</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>10</v>
-      </c>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D126" s="9"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
+      <c r="D127" s="8"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
@@ -2068,49 +2032,49 @@
         <v>3</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -2121,15 +2085,15 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
+      <c r="D133" s="8"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>2</v>
@@ -2138,21 +2102,21 @@
         <v>1</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -2163,36 +2127,36 @@
         <v>2</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D138" s="8"/>
+      <c r="D138" s="9"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
+      <c r="D139" s="8"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
@@ -2202,10 +2166,10 @@
         <v>2</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -2216,54 +2180,54 @@
         <v>2</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D144" s="8"/>
+      <c r="D144" s="9"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
+      <c r="D145" s="8"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>2</v>
@@ -2272,12 +2236,12 @@
         <v>1</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>2</v>
@@ -2286,35 +2250,35 @@
         <v>3</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
@@ -2325,11 +2289,11 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
+      <c r="D151" s="8"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
@@ -2339,29 +2303,29 @@
         <v>2</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>2</v>
@@ -2370,37 +2334,37 @@
         <v>3</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D156" s="8"/>
+      <c r="D156" s="9"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
+      <c r="D157" s="8"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>2</v>
@@ -2409,35 +2373,35 @@
         <v>1</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
@@ -2448,22 +2412,22 @@
         <v>2</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D162" s="8"/>
+      <c r="D162" s="9"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
+      <c r="D163" s="8"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
@@ -2473,38 +2437,38 @@
         <v>2</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
@@ -2515,23 +2479,26 @@
         <v>2</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>10</v>
-      </c>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D168" s="7"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
+      <c r="D169" s="8"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>2</v>
@@ -2540,12 +2507,12 @@
         <v>3</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>2</v>
@@ -2554,57 +2521,60 @@
         <v>1</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>21</v>
-      </c>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D174" s="9"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
+      <c r="D175" s="8"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
@@ -2618,48 +2588,51 @@
         <v>1</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>10</v>
-      </c>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D180" s="9"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
+      <c r="D181" s="8"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>2</v>
@@ -2668,7 +2641,7 @@
         <v>1</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
@@ -2679,38 +2652,38 @@
         <v>2</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
